--- a/biology/Botanique/Bertiera_elabensis/Bertiera_elabensis.xlsx
+++ b/biology/Botanique/Bertiera_elabensis/Bertiera_elabensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bertiera elabensis est une espèce de plantes à fleurs de la famille des Rubiaceae et du genre Bertiera. C'est un arbuste présent principalement au Cameroun, mais également au Gabon.
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son épithète spécifique elabensis fait référence à la localité d'Elabe (Kribi II, au sud du Cameroun), où elle a été découverte par Carl Ludwig Ledermann en septembre 1908[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son épithète spécifique elabensis fait référence à la localité d'Elabe (Kribi II, au sud du Cameroun), où elle a été découverte par Carl Ludwig Ledermann en septembre 1908.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Subendémique, relativement commune au Cameroun, elle y a été observée dans plusieurs régions : Sud-Ouest (dont le parc national de Korup), Centre (Makak, Ototomo), et Sud (aux environs de Kribi, dont Elabe[3]).
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Subendémique, relativement commune au Cameroun, elle y a été observée dans plusieurs régions : Sud-Ouest (dont le parc national de Korup), Centre (Makak, Ototomo), et Sud (aux environs de Kribi, dont Elabe).
 </t>
         </is>
       </c>
